--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2959.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2959.xlsx
@@ -354,7 +354,7 @@
         <v>2.851168931154051</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.101804749449094</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2959.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2959.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.215490517700139</v>
+        <v>0.3102896511554718</v>
       </c>
       <c r="B1">
-        <v>2.851168931154051</v>
+        <v>0.2056666761636734</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.5889539122581482</v>
       </c>
       <c r="D1">
-        <v>2.101804749449094</v>
+        <v>3.634248495101929</v>
       </c>
       <c r="E1">
-        <v>1.189306193030937</v>
+        <v>3.843929529190063</v>
       </c>
     </row>
   </sheetData>
